--- a/02table/TableS8_TWAS_results.xlsx
+++ b/02table/TableS8_TWAS_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14FB35-78E2-AC49-AAED-81E2313A1656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0E339-1909-034A-96C4-0B6F970E23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40300" yWindow="3020" windowWidth="28140" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7733,9 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
